--- a/data/trans_dic/P62A$viudedad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,25</t>
+          <t>0,0; 25,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,12 +880,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,39</t>
+          <t>0,0; 68,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,56</t>
+          <t>0,0; 49,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,64</t>
+          <t>0,0; 46,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,59</t>
+          <t>0,0; 38,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,84</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 46,73</t>
+          <t>5,26; 45,24</t>
         </is>
       </c>
     </row>
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,97</t>
+          <t>0,0; 13,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 60,91</t>
+          <t>16,39; 60,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,03</t>
+          <t>1,23; 36,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 19,09</t>
+          <t>2,23; 19,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 29,07</t>
+          <t>3,24; 26,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 36,33</t>
+          <t>9,82; 36,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 17,78</t>
+          <t>2,05; 17,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,42</t>
+          <t>1,01; 9,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 17,27</t>
+          <t>3,09; 16,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 40,56</t>
+          <t>16,2; 39,71</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>0,0; 9,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,47; 65,74</t>
+          <t>37,07; 65,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,62; 41,96</t>
+          <t>14,96; 41,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 42,47</t>
+          <t>16,82; 41,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,97; 37,58</t>
+          <t>13,76; 38,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 40,21</t>
+          <t>18,51; 41,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 22,7</t>
+          <t>7,97; 22,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 19,56</t>
+          <t>6,23; 18,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,4</t>
+          <t>4,9; 14,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 51,75</t>
+          <t>32,13; 51,76</t>
         </is>
       </c>
     </row>
@@ -1299,47 +1300,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,89; 38,68</t>
+          <t>24,35; 37,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,65; 56,57</t>
+          <t>33,19; 55,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,54; 51,71</t>
+          <t>30,73; 52,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 39,78</t>
+          <t>21,92; 39,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,7; 25,53</t>
+          <t>13,67; 25,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 18,73</t>
+          <t>10,76; 19,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,61</t>
+          <t>10,39; 19,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,61</t>
+          <t>7,43; 14,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 30,9</t>
+          <t>20,89; 30,38</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,0</t>
+          <t>5,89; 11,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,03; 54,59</t>
+          <t>39,74; 54,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,87; 46,26</t>
+          <t>32,99; 46,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,08; 34,92</t>
+          <t>23,02; 35,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,04</t>
+          <t>0,64; 5,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,62; 22,15</t>
+          <t>14,88; 21,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,64</t>
+          <t>14,01; 20,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,96</t>
+          <t>9,56; 15,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,1</t>
+          <t>1,82; 7,16</t>
         </is>
       </c>
     </row>
@@ -1579,47 +1580,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,91</t>
+          <t>4,1; 8,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>53,49; 65,85</t>
+          <t>53,22; 66,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,82; 65,24</t>
+          <t>53,15; 64,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,13; 57,69</t>
+          <t>44,04; 57,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,47</t>
+          <t>2,67; 5,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,24; 37,33</t>
+          <t>28,23; 37,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,91; 36,68</t>
+          <t>28,47; 37,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,96; 31,39</t>
+          <t>23,16; 31,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,47</t>
+          <t>3,76; 6,56</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,47 +1720,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,85</t>
+          <t>13,98; 18,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,35; 53,77</t>
+          <t>44,97; 53,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,83; 47,17</t>
+          <t>39,81; 47,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,11; 39,55</t>
+          <t>31,94; 39,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,72</t>
+          <t>3,17; 8,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,41; 23,81</t>
+          <t>19,62; 24,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,27</t>
+          <t>18,24; 22,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,16</t>
+          <t>14,29; 18,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,0</t>
+          <t>7,22; 12,97</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de viudedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 715</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1425</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1625</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 762</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1091</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1787</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2335</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1820</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5559</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5380</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1733</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5582</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6226</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4516</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1060; 9128</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7266</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3690</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5349</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12615</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3847</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3257; 11997</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>237; 6998</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>883; 7604</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>928; 7629</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2539; 9423</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>909; 7833</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>872; 7959</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1796; 9531</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7407; 18155</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28304</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11196</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15292</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11580</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11583</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12257</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15292</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11580</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39887</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4469</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2135</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2096</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20239; 35812</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6142; 17170</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9188; 22942</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6513; 18037</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7395; 16449</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6926; 19766</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8124; 24676</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6178; 18175</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30379; 48932</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51636</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36013</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39490</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33251</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20151</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>36013</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39490</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33251</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71787</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2159</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41448; 63449</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26527; 43997</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29421; 49910</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24333; 43644</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14522; 26852</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26774; 48443</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27968; 52446</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23136; 46539</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57730; 83974</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24616</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>83386</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>88927</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>67476</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10079</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>84350</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>91003</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>67476</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34695</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4850</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12121</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17649; 33473</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>70230; 96197</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>74411; 104277</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>53876; 82569</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2741; 22443</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>68826; 100333</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>74404; 110260</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>53276; 85025</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13336; 52335</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>15402</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>147929</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>176719</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>148480</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12633</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>147929</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>176719</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>148480</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>28035</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1629</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10139; 21569</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>131617; 164025</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>157555; 192576</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>128835; 168447</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8533; 18009</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>128067; 167875</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>155218; 201812</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>125756; 170030</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>21306; 37125</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>129604</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>283506</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>323350</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>264478</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>60976</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>285531</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>326389</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>265412</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>190581</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6720</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 12367</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>112018; 150339</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>259080; 307049</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>297014; 352025</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>235428; 293005</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>29687; 83784</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>257740; 317638</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>294999; 360593</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>234046; 295889</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>125638; 225476</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>